--- a/資料庫資料/資料庫資料整理V2.xlsx
+++ b/資料庫資料/資料庫資料整理V2.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大學專題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiChing\Desktop\project\資料庫資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAF593B-CEEA-4E19-94F7-CFE1EDC56CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416F6402-811F-40A7-916E-F40A2EB7A8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
   </bookViews>
   <sheets>
     <sheet name="長期" sheetId="1" r:id="rId1"/>
     <sheet name="卡片" sheetId="2" r:id="rId2"/>
     <sheet name="回饋類別" sheetId="8" r:id="rId3"/>
-    <sheet name="紅利換算" sheetId="3" r:id="rId4"/>
-    <sheet name="卡片 原本" sheetId="6" r:id="rId5"/>
-    <sheet name="長期 (原本)" sheetId="7" r:id="rId6"/>
+    <sheet name="回饋類別(宜靜)" sheetId="9" r:id="rId4"/>
+    <sheet name="紅利換算" sheetId="3" r:id="rId5"/>
+    <sheet name="卡片 原本" sheetId="6" r:id="rId6"/>
+    <sheet name="長期 (原本)" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">長期!$A$1:$H$324</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="539">
   <si>
     <t>銀行別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2653,6 +2654,104 @@
   <si>
     <t>統一時代百貨、夢時代購物中心、速邁樂加油中心</t>
   </si>
+  <si>
+    <t>單獨進cypher create</t>
+  </si>
+  <si>
+    <t>國外餐飲</t>
+  </si>
+  <si>
+    <t>國內餐飲</t>
+  </si>
+  <si>
+    <t>住宿</t>
+  </si>
+  <si>
+    <t>旅行社</t>
+  </si>
+  <si>
+    <t>訂房平台</t>
+  </si>
+  <si>
+    <t>travel_platforms = [ "KKday", "Agoda", "KLOOK", "Airbnb", "Hotels.com", "Expedia", "Booking.com", "Trip.com", "AsiaYo" ]</t>
+  </si>
+  <si>
+    <t>百貨公司</t>
+  </si>
+  <si>
+    <t>shopping_centers = [ "遠東SOGO百貨", "太平洋百貨", "新光三越", "SKM_Park", "遠東百貨", "Big_City遠東巨城購物中心", "微風廣場", "誠品生活", "環球購物中心", "CITYLINK", "BELLAVITA", "統一時代", "台北101", "ATT_4_FUN", "明曜百貨", "京站", "美麗華", "大葉高島屋", "遠企購物中心", "比漾廣場", "大江國際購物中心", "中友百貨", "廣三SOGO", "Tiger_City", "勤美誠品綠園道", "金典綠園道", "大魯閣新時代", "耐斯廣場", "南紡購物中心", "德安百貨", "夢時代", "大立百貨", "大統百貨", "漢神百貨", "漢神巨蛋", "林口MITSUI_OUTLET_PARK", "台中港MITSUI_OUTLET_PARK", "台南MITSUI_OUTLET_PARK", "台中Mitsui_Shopping_Park_LaLaport", "禮客", "義大世界購物廣場", "華泰名品城", "義享天地", "麗寶OUTLET_Mall", "麗寶百貨廣場", "秀泰生活", "徐匯廣場", "台茂購物中心", "桃園統領百貨", "新月廣場", "日曜天地", "三創生活", "_6_Plaza廣場", "iFG遠雄廣場", "台南FOCUS", "悅誠廣場", "欣欣百貨", "宏匯廣場", "高雄棧貳庫商場", "樂購廣場", "NOKE忠泰樂生活", "昇恆昌" ]</t>
+  </si>
+  <si>
+    <t>國內藥妝</t>
+  </si>
+  <si>
+    <t>pharmacies = [ "康是美", "寶雅", "屈臣氏", "日藥本舖", "Tomod_s", "松本清"]</t>
+  </si>
+  <si>
+    <t>外送平台</t>
+  </si>
+  <si>
+    <t>food_delivery_platforms = ["Uber_Eats", "foodpanda", "foodomo", "inline"]</t>
+  </si>
+  <si>
+    <t>超商</t>
+  </si>
+  <si>
+    <t>convenience_store = ["SevenEleven", "FamilyMart", "萊爾富", "OK", "美廉社"]</t>
+  </si>
+  <si>
+    <t>影音串流平台</t>
+  </si>
+  <si>
+    <t>musics = ["Google_Play", "Disney_Plus", "Netflix", "Spotify", "KKBOX", "KKTV", "App_Store", "Apple_Music", "iCloud" ]</t>
+  </si>
+  <si>
+    <t>電商平台</t>
+  </si>
+  <si>
+    <t>shopping_websites = ["蝦皮購物", "momo購物網", "PChome線上購物", "Yahoo奇摩購物中心", "小樹購", "Amazon", "淘寶", "天貓"]</t>
+  </si>
+  <si>
+    <t>支付方式</t>
+  </si>
+  <si>
+    <t>PayList = ["歐付寶", "橘子支付", "ezPay簡單付", "街口支付", "全盈_PAY", "全支付" "PChome國際連", "一卡通Money", "悠遊付", "icash_Pay", "LINE_Pay", "Apple_Pay", "Samsung_Pay", "Google_Pay", "台灣Pay", "玉山Wallet", "Hami_Pay"]</t>
+  </si>
+  <si>
+    <t>交通</t>
+  </si>
+  <si>
+    <t>Traffic_List = ["高鐵", "計程車", "公車", "台鐵", "捷運", "飛機”, "Uber", "LINE TAXI", "yoxi", "台灣大車隊", "大都會計程車”, "和運租車", "iRent", "格上租車", "中租租車", "AVIS租車"]</t>
+  </si>
+  <si>
+    <t>類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我分為國內跟國外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restaurants= [ 
+#王品
+"王品牛排", "TASTy西堤牛排", "丰禾和牛涮", "肉次方燒肉放題", "Oh_my原燒", "和牛涮", "尬鍋台式潮鍋", "聚北海道昆布鍋", "石二鍋", "青花驕", "_12MINI", "陶板屋", "藝奇和牛岩板焼", "夏慕尼新香榭鐵板燒", "品田牧場", "享鴨", "hot7鐵板燒", "莆田"
+#築間 "築間幸福鍋物", "燒肉Smile", "有之和牛鍋物放題", "本格和牛燒肉放題", "繪馬別邸" #瓦城 "瓦城泰國料理", "非常泰概念餐坊", "_1010湘", "大心新泰式麵食", "時時香RICE_BAR", "YABI_KITCHEN", "月月THAI_BBQ", "樂子The_Dinner" ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travel_agencies = [
+    "ezTravel易遊網", "雄獅旅遊",
+    "可樂旅遊", "東南旅遊", "五福旅遊", "燦星旅遊", "山富旅遊", "長汎假期",
+    "鳳凰旅行社", "Ezfly易飛網", "理想旅遊", "永利旅行社", "三賀旅行社"  
+    ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hotels = [
+        "飯店", "青年旅館", "連鎖飯店"
+    ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2662,7 +2761,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2795,6 +2894,15 @@
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2828,7 +2936,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2845,6 +2953,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2854,7 +2991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2939,11 +3076,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3913,7 +4068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}">
   <dimension ref="A1:K359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A314" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F331" sqref="F331"/>
     </sheetView>
   </sheetViews>
@@ -4003,7 +4158,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="351.6">
+    <row r="5" spans="1:7" ht="100.8">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,7 +4195,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="351.6">
+    <row r="7" spans="1:7" ht="100.8">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -4077,7 +4232,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="351.6">
+    <row r="9" spans="1:7" ht="100.8">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -4114,7 +4269,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="351.6">
+    <row r="11" spans="1:7" ht="100.8">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -4151,7 +4306,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="351.6">
+    <row r="13" spans="1:7" ht="100.8">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -4886,7 +5041,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="21"/>
     </row>
-    <row r="54" spans="1:11" ht="129.6">
+    <row r="54" spans="1:11" ht="43.2">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
@@ -4908,7 +5063,7 @@
       <c r="J54" s="19"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" ht="162">
+    <row r="55" spans="1:11" ht="113.4">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -5036,7 +5191,7 @@
       <c r="F61" s="20"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="1:11" ht="259.2">
+    <row r="62" spans="1:11" ht="194.4">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -5054,7 +5209,7 @@
       </c>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="1:11" ht="194.4">
+    <row r="63" spans="1:11" ht="162">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -5072,7 +5227,7 @@
       </c>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="1:11" ht="307.8">
+    <row r="64" spans="1:11" ht="243">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -5145,7 +5300,7 @@
       </c>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="1:7" ht="48.6">
+    <row r="68" spans="1:7" ht="32.4">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
@@ -5344,7 +5499,7 @@
       </c>
       <c r="G78" s="15"/>
     </row>
-    <row r="79" spans="1:7" ht="405">
+    <row r="79" spans="1:7" ht="210.6">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -5362,7 +5517,7 @@
       </c>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" ht="64.8">
+    <row r="80" spans="1:7" ht="48.6">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -6833,7 +6988,7 @@
       <c r="E159" t="s">
         <v>398</v>
       </c>
-      <c r="G159" s="27" t="s">
+      <c r="G159" s="28" t="s">
         <v>209</v>
       </c>
     </row>
@@ -6853,7 +7008,7 @@
       <c r="E160" t="s">
         <v>201</v>
       </c>
-      <c r="G160" s="27"/>
+      <c r="G160" s="28"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
@@ -6871,7 +7026,7 @@
       <c r="E161" t="s">
         <v>403</v>
       </c>
-      <c r="G161" s="27"/>
+      <c r="G161" s="28"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
@@ -6889,7 +7044,7 @@
       <c r="E162" t="s">
         <v>154</v>
       </c>
-      <c r="G162" s="27"/>
+      <c r="G162" s="28"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
@@ -6941,7 +7096,7 @@
       <c r="E165" t="s">
         <v>398</v>
       </c>
-      <c r="G165" s="27" t="s">
+      <c r="G165" s="28" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6961,7 +7116,7 @@
       <c r="E166" t="s">
         <v>207</v>
       </c>
-      <c r="G166" s="27"/>
+      <c r="G166" s="28"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
@@ -6979,7 +7134,7 @@
       <c r="E167" t="s">
         <v>398</v>
       </c>
-      <c r="G167" s="27" t="s">
+      <c r="G167" s="28" t="s">
         <v>206</v>
       </c>
     </row>
@@ -6999,7 +7154,7 @@
       <c r="E168" t="s">
         <v>207</v>
       </c>
-      <c r="G168" s="27"/>
+      <c r="G168" s="28"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
@@ -7051,7 +7206,7 @@
       <c r="E171" t="s">
         <v>210</v>
       </c>
-      <c r="G171" s="27" t="s">
+      <c r="G171" s="28" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7071,7 +7226,7 @@
       <c r="E172" t="s">
         <v>211</v>
       </c>
-      <c r="G172" s="27"/>
+      <c r="G172" s="28"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
@@ -7112,7 +7267,7 @@
       <c r="F174" t="s">
         <v>210</v>
       </c>
-      <c r="G174" s="27" t="s">
+      <c r="G174" s="28" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7135,7 +7290,7 @@
       <c r="F175" t="s">
         <v>211</v>
       </c>
-      <c r="G175" s="27"/>
+      <c r="G175" s="28"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
@@ -9948,22 +10103,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
+      <c r="A1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" t="s">
         <v>389</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -12531,170 +12686,182 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2C0C31-3AA7-4B2B-94D5-159628074512}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" s="27" customFormat="1">
+      <c r="A1" s="32" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="P1" s="12"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" t="s">
+      <c r="P2" s="12"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="33" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="33" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
+    <row r="7" spans="1:16">
+      <c r="A7" s="33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
+    <row r="8" spans="1:16">
+      <c r="A8" s="33" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
+    <row r="9" spans="1:16">
+      <c r="A9" s="33" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
+    <row r="10" spans="1:16">
+      <c r="A10" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="34" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="33" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
+    <row r="13" spans="1:16">
+      <c r="A13" s="33" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
+    <row r="14" spans="1:16">
+      <c r="A14" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="33" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
+    <row r="16" spans="1:16">
+      <c r="A16" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="33" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="33" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="34" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="33" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="33" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="33" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="35" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="35" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="35" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="35" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="35" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="35" t="s">
         <v>303</v>
       </c>
     </row>
@@ -12705,6 +12872,130 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925F1C00-052D-4755-B130-67488CB4BC21}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="162">
+      <c r="A2" s="20" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48.6">
+      <c r="A3" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="81">
+      <c r="A4" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="32.4">
+      <c r="A5" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="226.8">
+      <c r="A6" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="20" t="s">
+        <v>522</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="32.4">
+      <c r="A10" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="32.4">
+      <c r="A11" s="20" t="s">
+        <v>528</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="48.6">
+      <c r="A12" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="48.6">
+      <c r="A13" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>533</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FE6D43-B8C5-4622-BF0A-33043033EA6E}">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -13080,7 +13371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD205247-4704-4662-A3DB-46745690C417}">
   <dimension ref="A1:G82"/>
   <sheetViews>
@@ -13095,17 +13386,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>35</v>
       </c>
     </row>
@@ -13116,9 +13407,9 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" t="s">
         <v>319</v>
       </c>
@@ -14523,7 +14814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B60CDA1-2ADC-4626-A392-3AE94369B794}">
   <dimension ref="A1:I254"/>
   <sheetViews>
@@ -14542,20 +14833,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="28" t="s">
         <v>179</v>
       </c>
     </row>
@@ -14566,10 +14857,10 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="I2" t="s">
         <v>134</v>
       </c>
@@ -15698,7 +15989,7 @@
       <c r="D74" t="s">
         <v>130</v>
       </c>
-      <c r="F74" s="27" t="s">
+      <c r="F74" s="28" t="s">
         <v>209</v>
       </c>
     </row>
@@ -15715,7 +16006,7 @@
       <c r="D75" t="s">
         <v>129</v>
       </c>
-      <c r="F75" s="27"/>
+      <c r="F75" s="28"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
@@ -15730,7 +16021,7 @@
       <c r="D76" t="s">
         <v>201</v>
       </c>
-      <c r="F76" s="27"/>
+      <c r="F76" s="28"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
@@ -15745,7 +16036,7 @@
       <c r="D77" t="s">
         <v>202</v>
       </c>
-      <c r="F77" s="27"/>
+      <c r="F77" s="28"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
@@ -15760,7 +16051,7 @@
       <c r="D78" t="s">
         <v>154</v>
       </c>
-      <c r="F78" s="27"/>
+      <c r="F78" s="28"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
@@ -15806,7 +16097,7 @@
       <c r="D81" t="s">
         <v>130</v>
       </c>
-      <c r="F81" s="27" t="s">
+      <c r="F81" s="28" t="s">
         <v>206</v>
       </c>
     </row>
@@ -15823,7 +16114,7 @@
       <c r="D82" t="s">
         <v>129</v>
       </c>
-      <c r="F82" s="27"/>
+      <c r="F82" s="28"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
@@ -15841,7 +16132,7 @@
       <c r="E83" t="s">
         <v>207</v>
       </c>
-      <c r="F83" s="27"/>
+      <c r="F83" s="28"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
@@ -15904,7 +16195,7 @@
       <c r="E87" t="s">
         <v>210</v>
       </c>
-      <c r="F87" s="27" t="s">
+      <c r="F87" s="28" t="s">
         <v>221</v>
       </c>
     </row>
@@ -15924,7 +16215,7 @@
       <c r="E88" t="s">
         <v>211</v>
       </c>
-      <c r="F88" s="27"/>
+      <c r="F88" s="28"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
@@ -15959,7 +16250,7 @@
       <c r="E90" t="s">
         <v>210</v>
       </c>
-      <c r="F90" s="27" t="s">
+      <c r="F90" s="28" t="s">
         <v>221</v>
       </c>
     </row>
@@ -15979,7 +16270,7 @@
       <c r="E91" t="s">
         <v>211</v>
       </c>
-      <c r="F91" s="27"/>
+      <c r="F91" s="28"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">

--- a/資料庫資料/資料庫資料整理V2.xlsx
+++ b/資料庫資料/資料庫資料整理V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiChing\Desktop\project\資料庫資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416F6402-811F-40A7-916E-F40A2EB7A8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D832B7-A9F9-4761-84B4-94912E1E4A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
   </bookViews>
   <sheets>
     <sheet name="長期" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="543">
   <si>
     <t>銀行別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2661,27 +2661,15 @@
     <t>國外餐飲</t>
   </si>
   <si>
-    <t>國內餐飲</t>
-  </si>
-  <si>
     <t>住宿</t>
   </si>
   <si>
-    <t>旅行社</t>
-  </si>
-  <si>
-    <t>訂房平台</t>
-  </si>
-  <si>
     <t>travel_platforms = [ "KKday", "Agoda", "KLOOK", "Airbnb", "Hotels.com", "Expedia", "Booking.com", "Trip.com", "AsiaYo" ]</t>
   </si>
   <si>
     <t>百貨公司</t>
   </si>
   <si>
-    <t>shopping_centers = [ "遠東SOGO百貨", "太平洋百貨", "新光三越", "SKM_Park", "遠東百貨", "Big_City遠東巨城購物中心", "微風廣場", "誠品生活", "環球購物中心", "CITYLINK", "BELLAVITA", "統一時代", "台北101", "ATT_4_FUN", "明曜百貨", "京站", "美麗華", "大葉高島屋", "遠企購物中心", "比漾廣場", "大江國際購物中心", "中友百貨", "廣三SOGO", "Tiger_City", "勤美誠品綠園道", "金典綠園道", "大魯閣新時代", "耐斯廣場", "南紡購物中心", "德安百貨", "夢時代", "大立百貨", "大統百貨", "漢神百貨", "漢神巨蛋", "林口MITSUI_OUTLET_PARK", "台中港MITSUI_OUTLET_PARK", "台南MITSUI_OUTLET_PARK", "台中Mitsui_Shopping_Park_LaLaport", "禮客", "義大世界購物廣場", "華泰名品城", "義享天地", "麗寶OUTLET_Mall", "麗寶百貨廣場", "秀泰生活", "徐匯廣場", "台茂購物中心", "桃園統領百貨", "新月廣場", "日曜天地", "三創生活", "_6_Plaza廣場", "iFG遠雄廣場", "台南FOCUS", "悅誠廣場", "欣欣百貨", "宏匯廣場", "高雄棧貳庫商場", "樂購廣場", "NOKE忠泰樂生活", "昇恆昌" ]</t>
-  </si>
-  <si>
     <t>國內藥妝</t>
   </si>
   <si>
@@ -2729,13 +2717,6 @@
   </si>
   <si>
     <t>我分為國內跟國外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>restaurants= [ 
-#王品
-"王品牛排", "TASTy西堤牛排", "丰禾和牛涮", "肉次方燒肉放題", "Oh_my原燒", "和牛涮", "尬鍋台式潮鍋", "聚北海道昆布鍋", "石二鍋", "青花驕", "_12MINI", "陶板屋", "藝奇和牛岩板焼", "夏慕尼新香榭鐵板燒", "品田牧場", "享鴨", "hot7鐵板燒", "莆田"
-#築間 "築間幸福鍋物", "燒肉Smile", "有之和牛鍋物放題", "本格和牛燒肉放題", "繪馬別邸" #瓦城 "瓦城泰國料理", "非常泰概念餐坊", "_1010湘", "大心新泰式麵食", "時時香RICE_BAR", "YABI_KITCHEN", "月月THAI_BBQ", "樂子The_Dinner" ]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2750,6 +2731,52 @@
     <t>hotels = [
         "飯店", "青年旅館", "連鎖飯店"
     ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>娛樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_centers = [ "遠東SOGO百貨", "太平洋百貨", "新光三越", "SKM_Park", "遠東百貨", "Big_City遠東巨城購物中心", "微風廣場", "誠品生活", "環球購物中心", "CITYLINK", "BELLAVITA", "統一時代", "台北101", "ATT_4_FUN", "明曜百貨", "京站", "美麗華", "大葉高島屋", "遠企購物中心", "比漾廣場", "大江國際購物中心", "中友百貨", "廣三SOGO", "Tiger_City", "勤美誠品綠園道", "金典綠園道", "大魯閣新時代", "耐斯廣場", "南紡購物中心", "德安百貨", "夢時代", "大立百貨", "大統百貨", "漢神百貨", "漢神巨蛋", "林口MITSUI_OUTLET_PARK", "台中港MITSUI_OUTLET_PARK", "台南MITSUI_OUTLET_PARK", "台中Mitsui_Shopping_Park_LaLaport", "禮客", "義大世界購物廣場", "華泰名品城", "義享天地", "麗寶OUTLET_Mall", "麗寶百貨廣場", "秀泰生活", "徐匯廣場", "台茂購物中心", "桃園統領百貨", "新月廣場", "日曜天地", "三創生活", "_6_Plaza廣場", "iFG遠雄廣場", "台南FOCUS", "悅誠廣場", "欣欣百貨", "宏匯廣場", "高雄棧貳庫商場", "樂購廣場", "NOKE忠泰樂生活", "昇恆昌" ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ent = [
+]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>國內餐飲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訂房平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        "王品牛排", "TASTy西堤牛排", "丰龢和牛涮", "肉次方燒肉放題", "Oh_my原燒",
+        "和牛涮", "尬鍋台式潮鍋", "聚北海道昆布鍋", "石二鍋", "青花驕",
+        "_12MINI", "陶板屋", "藝奇和牛岩板焼", "夏慕尼新香榭鐵板燒", "品田牧場",
+        "享鴨", "hot7鐵板燒", "莆田", "築間幸福鍋物", "燒肉Smile",
+        "有之和牛鍋物放題", "本格和牛燒肉放題", "繪馬別邸", "瓦城泰國料理", 
+        "非常泰概念餐坊", "_1010湘", "大心新泰式麵食", "時時香RICE_BAR", "YABI_KITCHEN", 
+        "月月THAI_BBQ", "樂子The_Dinner", "茹絲葵經典牛排館", "屋馬燒肉", "solo_pasta義大利麵", 
+        "俺達の肉屋_日本和牛專門店", "鹽之華法式餐廳", "廚房有雞花雕雞", "碳佐麻里精品燒肉", 
+        "与玥樓頂級粵菜餐廳", "RAW", "山海樓", "金蓬萊遵古台菜餐廳", "老新台菜", 
+        "麥當勞", "星巴克"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.notion.so/Ucard-09fdaa456979404b85b5f512ebde1480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的Notion資料庫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2761,7 +2788,7 @@
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2898,10 +2925,16 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
       <charset val="136"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2991,7 +3024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3076,15 +3109,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3099,6 +3123,21 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6988,7 +7027,7 @@
       <c r="E159" t="s">
         <v>398</v>
       </c>
-      <c r="G159" s="28" t="s">
+      <c r="G159" s="33" t="s">
         <v>209</v>
       </c>
     </row>
@@ -7008,7 +7047,7 @@
       <c r="E160" t="s">
         <v>201</v>
       </c>
-      <c r="G160" s="28"/>
+      <c r="G160" s="33"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
@@ -7026,7 +7065,7 @@
       <c r="E161" t="s">
         <v>403</v>
       </c>
-      <c r="G161" s="28"/>
+      <c r="G161" s="33"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
@@ -7044,7 +7083,7 @@
       <c r="E162" t="s">
         <v>154</v>
       </c>
-      <c r="G162" s="28"/>
+      <c r="G162" s="33"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
@@ -7096,7 +7135,7 @@
       <c r="E165" t="s">
         <v>398</v>
       </c>
-      <c r="G165" s="28" t="s">
+      <c r="G165" s="33" t="s">
         <v>206</v>
       </c>
     </row>
@@ -7116,7 +7155,7 @@
       <c r="E166" t="s">
         <v>207</v>
       </c>
-      <c r="G166" s="28"/>
+      <c r="G166" s="33"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
@@ -7134,7 +7173,7 @@
       <c r="E167" t="s">
         <v>398</v>
       </c>
-      <c r="G167" s="28" t="s">
+      <c r="G167" s="33" t="s">
         <v>206</v>
       </c>
     </row>
@@ -7154,7 +7193,7 @@
       <c r="E168" t="s">
         <v>207</v>
       </c>
-      <c r="G168" s="28"/>
+      <c r="G168" s="33"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
@@ -7206,7 +7245,7 @@
       <c r="E171" t="s">
         <v>210</v>
       </c>
-      <c r="G171" s="28" t="s">
+      <c r="G171" s="33" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7226,7 +7265,7 @@
       <c r="E172" t="s">
         <v>211</v>
       </c>
-      <c r="G172" s="28"/>
+      <c r="G172" s="33"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
@@ -7267,7 +7306,7 @@
       <c r="F174" t="s">
         <v>210</v>
       </c>
-      <c r="G174" s="28" t="s">
+      <c r="G174" s="33" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7290,7 +7329,7 @@
       <c r="F175" t="s">
         <v>211</v>
       </c>
-      <c r="G175" s="28"/>
+      <c r="G175" s="33"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
@@ -12688,13 +12727,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2C0C31-3AA7-4B2B-94D5-159628074512}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="30" customWidth="1"/>
     <col min="2" max="2" width="38.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -12702,32 +12741,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="27" customFormat="1">
-      <c r="A1" s="32" t="s">
-        <v>534</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="30" t="s">
         <v>398</v>
       </c>
       <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="30" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>309</v>
       </c>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="30" t="s">
         <v>140</v>
       </c>
       <c r="B5" s="4"/>
@@ -12737,27 +12776,27 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="30" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="30" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="30" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="30" t="s">
         <v>156</v>
       </c>
       <c r="F10" s="4"/>
@@ -12766,102 +12805,102 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="31" t="s">
         <v>403</v>
       </c>
       <c r="B11" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="30" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="30" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="30" t="s">
         <v>224</v>
       </c>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="30" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="30" t="s">
         <v>185</v>
       </c>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="30" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="30" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="31" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="30" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="30" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="30" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="32" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="32" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="32" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="32" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="32" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="32" t="s">
         <v>303</v>
       </c>
     </row>
@@ -12873,124 +12912,144 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925F1C00-052D-4755-B130-67488CB4BC21}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.77734375" style="37" customWidth="1"/>
+    <col min="3" max="16384" width="13" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:2" ht="16.2">
+      <c r="A1" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="35" t="s">
         <v>512</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B2" s="36" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="162">
-      <c r="A2" s="20" t="s">
+    <row r="3" spans="1:2" ht="46.8">
+      <c r="A3" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="156">
+      <c r="A4" s="36" t="s">
+        <v>537</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="46.8">
+      <c r="A5" s="36" t="s">
         <v>513</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="48.6">
-      <c r="A3" s="20" t="s">
+      <c r="B5" s="36" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="78">
+      <c r="A6" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.2">
+      <c r="A7" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>514</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="81">
-      <c r="A4" s="20" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="187.2">
+      <c r="A8" s="36" t="s">
         <v>515</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="32.4">
-      <c r="A5" s="20" t="s">
+      <c r="B8" s="36" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="36" t="s">
         <v>516</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B9" s="36" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="226.8">
-      <c r="A6" s="20" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="36" t="s">
         <v>518</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B10" s="36" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="20" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="36" t="s">
         <v>520</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B11" s="36" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="20" t="s">
+    <row r="12" spans="1:2" ht="31.2">
+      <c r="A12" s="36" t="s">
         <v>522</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B12" s="36" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="20" t="s">
+    <row r="13" spans="1:2" ht="31.2">
+      <c r="A13" s="36" t="s">
         <v>524</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B13" s="36" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="32.4">
-      <c r="A10" s="20" t="s">
+    <row r="14" spans="1:2" ht="62.4">
+      <c r="A14" s="36" t="s">
         <v>526</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B14" s="36" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="32.4">
-      <c r="A11" s="20" t="s">
+    <row r="15" spans="1:2" ht="46.8">
+      <c r="A15" s="36" t="s">
         <v>528</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B15" s="36" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="48.6">
-      <c r="A12" s="20" t="s">
-        <v>530</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="48.6">
-      <c r="A13" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>533</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{DCBCE96B-7AA8-4ECB-AE7B-1C1DAEC383A8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13386,17 +13445,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="33" t="s">
         <v>35</v>
       </c>
     </row>
@@ -13407,9 +13466,9 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="F2" t="s">
         <v>319</v>
       </c>
@@ -14833,20 +14892,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="33" t="s">
         <v>179</v>
       </c>
     </row>
@@ -14857,10 +14916,10 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
       <c r="I2" t="s">
         <v>134</v>
       </c>
@@ -15989,7 +16048,7 @@
       <c r="D74" t="s">
         <v>130</v>
       </c>
-      <c r="F74" s="28" t="s">
+      <c r="F74" s="33" t="s">
         <v>209</v>
       </c>
     </row>
@@ -16006,7 +16065,7 @@
       <c r="D75" t="s">
         <v>129</v>
       </c>
-      <c r="F75" s="28"/>
+      <c r="F75" s="33"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
@@ -16021,7 +16080,7 @@
       <c r="D76" t="s">
         <v>201</v>
       </c>
-      <c r="F76" s="28"/>
+      <c r="F76" s="33"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
@@ -16036,7 +16095,7 @@
       <c r="D77" t="s">
         <v>202</v>
       </c>
-      <c r="F77" s="28"/>
+      <c r="F77" s="33"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
@@ -16051,7 +16110,7 @@
       <c r="D78" t="s">
         <v>154</v>
       </c>
-      <c r="F78" s="28"/>
+      <c r="F78" s="33"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
@@ -16097,7 +16156,7 @@
       <c r="D81" t="s">
         <v>130</v>
       </c>
-      <c r="F81" s="28" t="s">
+      <c r="F81" s="33" t="s">
         <v>206</v>
       </c>
     </row>
@@ -16114,7 +16173,7 @@
       <c r="D82" t="s">
         <v>129</v>
       </c>
-      <c r="F82" s="28"/>
+      <c r="F82" s="33"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
@@ -16132,7 +16191,7 @@
       <c r="E83" t="s">
         <v>207</v>
       </c>
-      <c r="F83" s="28"/>
+      <c r="F83" s="33"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
@@ -16195,7 +16254,7 @@
       <c r="E87" t="s">
         <v>210</v>
       </c>
-      <c r="F87" s="28" t="s">
+      <c r="F87" s="33" t="s">
         <v>221</v>
       </c>
     </row>
@@ -16215,7 +16274,7 @@
       <c r="E88" t="s">
         <v>211</v>
       </c>
-      <c r="F88" s="28"/>
+      <c r="F88" s="33"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
@@ -16250,7 +16309,7 @@
       <c r="E90" t="s">
         <v>210</v>
       </c>
-      <c r="F90" s="28" t="s">
+      <c r="F90" s="33" t="s">
         <v>221</v>
       </c>
     </row>
@@ -16270,7 +16329,7 @@
       <c r="E91" t="s">
         <v>211</v>
       </c>
-      <c r="F91" s="28"/>
+      <c r="F91" s="33"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">

--- a/資料庫資料/資料庫資料整理V2.xlsx
+++ b/資料庫資料/資料庫資料整理V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiChing\Desktop\project\資料庫資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Ucard\資料庫資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D832B7-A9F9-4761-84B4-94912E1E4A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCACD9A-E28A-46B9-89E6-2D59E9406E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
+    <workbookView xWindow="7668" yWindow="996" windowWidth="18732" windowHeight="11976" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
   </bookViews>
   <sheets>
     <sheet name="長期" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="長期 (原本)" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">長期!$A$1:$H$324</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">長期!$A$1:$H$325</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="543">
   <si>
     <t>銀行別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3124,12 +3124,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3138,6 +3132,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4105,10 +4105,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K359"/>
   <sheetViews>
-    <sheetView topLeftCell="A314" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F331" sqref="F331"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -4146,7 +4147,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -4163,7 +4164,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -4180,7 +4181,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="100.8">
+    <row r="5" spans="1:7" ht="100.8" hidden="1">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="100.8">
+    <row r="7" spans="1:7" ht="100.8" hidden="1">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="100.8">
+    <row r="9" spans="1:7" ht="100.8" hidden="1">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -4291,7 +4292,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
@@ -4308,7 +4309,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="100.8">
+    <row r="11" spans="1:7" ht="100.8" hidden="1">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="100.8">
+    <row r="13" spans="1:7" ht="100.8" hidden="1">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -4365,7 +4366,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -4382,7 +4383,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -4399,7 +4400,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -4415,11 +4416,11 @@
       <c r="E16" t="s">
         <v>398</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -4435,11 +4436,11 @@
       <c r="E17" t="s">
         <v>398</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" hidden="1">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -4456,7 +4457,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -4490,7 +4491,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -4507,7 +4508,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -4523,11 +4524,11 @@
       <c r="E22" t="s">
         <v>142</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -4543,11 +4544,11 @@
       <c r="E23" t="s">
         <v>142</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -4564,7 +4565,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -4598,7 +4599,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -4683,7 +4684,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -4717,7 +4718,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
@@ -4733,11 +4734,11 @@
       <c r="E34" t="s">
         <v>398</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -4754,7 +4755,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -4771,7 +4772,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -4787,11 +4788,11 @@
       <c r="E37" t="s">
         <v>508</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -4807,11 +4808,11 @@
       <c r="E38" t="s">
         <v>133</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -4827,11 +4828,11 @@
       <c r="E39" t="s">
         <v>140</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
@@ -4848,7 +4849,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -4865,7 +4866,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
@@ -4882,7 +4883,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -4899,7 +4900,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -4916,7 +4917,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7" hidden="1">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -4933,7 +4934,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
@@ -4950,7 +4951,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7" hidden="1">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -4967,7 +4968,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
@@ -4984,7 +4985,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1">
       <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1">
       <c r="A50" s="1" t="s">
         <v>43</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" hidden="1">
       <c r="A51" s="1" t="s">
         <v>43</v>
       </c>
@@ -5038,7 +5039,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
@@ -5516,7 +5517,7 @@
       <c r="E77" t="s">
         <v>501</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="G77" s="21" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6883,7 +6884,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" hidden="1">
       <c r="A152" s="1" t="s">
         <v>199</v>
       </c>
@@ -6900,7 +6901,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" hidden="1">
       <c r="A153" s="1" t="s">
         <v>198</v>
       </c>
@@ -6917,7 +6918,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" hidden="1">
       <c r="A154" s="1" t="s">
         <v>198</v>
       </c>
@@ -6931,13 +6932,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E154" t="s">
-        <v>398</v>
-      </c>
-      <c r="F154" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" hidden="1">
       <c r="A155" s="1" t="s">
         <v>199</v>
       </c>
@@ -6954,7 +6952,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" hidden="1">
       <c r="A156" s="1" t="s">
         <v>198</v>
       </c>
@@ -6968,13 +6966,10 @@
         <v>1.4E-2</v>
       </c>
       <c r="E156" t="s">
-        <v>398</v>
-      </c>
-      <c r="F156" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" hidden="1">
       <c r="A157" s="1" t="s">
         <v>198</v>
       </c>
@@ -6991,7 +6986,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" hidden="1">
       <c r="A158" s="1" t="s">
         <v>199</v>
       </c>
@@ -7005,13 +7000,10 @@
         <v>0.02</v>
       </c>
       <c r="E158" t="s">
-        <v>398</v>
-      </c>
-      <c r="F158" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" hidden="1">
       <c r="A159" s="1" t="s">
         <v>198</v>
       </c>
@@ -7027,11 +7019,11 @@
       <c r="E159" t="s">
         <v>398</v>
       </c>
-      <c r="G159" s="33" t="s">
+      <c r="G159" s="36" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" hidden="1">
       <c r="A160" s="1" t="s">
         <v>198</v>
       </c>
@@ -7047,9 +7039,9 @@
       <c r="E160" t="s">
         <v>201</v>
       </c>
-      <c r="G160" s="33"/>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="G160" s="36"/>
+    </row>
+    <row r="161" spans="1:7" hidden="1">
       <c r="A161" s="1" t="s">
         <v>198</v>
       </c>
@@ -7065,9 +7057,9 @@
       <c r="E161" t="s">
         <v>403</v>
       </c>
-      <c r="G161" s="33"/>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="G161" s="36"/>
+    </row>
+    <row r="162" spans="1:7" hidden="1">
       <c r="A162" s="1" t="s">
         <v>198</v>
       </c>
@@ -7083,9 +7075,9 @@
       <c r="E162" t="s">
         <v>154</v>
       </c>
-      <c r="G162" s="33"/>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="G162" s="36"/>
+    </row>
+    <row r="163" spans="1:7" hidden="1">
       <c r="A163" s="1" t="s">
         <v>198</v>
       </c>
@@ -7102,7 +7094,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" hidden="1">
       <c r="A164" s="1" t="s">
         <v>198</v>
       </c>
@@ -7119,7 +7111,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" hidden="1">
       <c r="A165" s="1" t="s">
         <v>198</v>
       </c>
@@ -7135,11 +7127,11 @@
       <c r="E165" t="s">
         <v>398</v>
       </c>
-      <c r="G165" s="33" t="s">
+      <c r="G165" s="36" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" hidden="1">
       <c r="A166" s="1" t="s">
         <v>198</v>
       </c>
@@ -7155,9 +7147,9 @@
       <c r="E166" t="s">
         <v>207</v>
       </c>
-      <c r="G166" s="33"/>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="G166" s="36"/>
+    </row>
+    <row r="167" spans="1:7" hidden="1">
       <c r="A167" s="1" t="s">
         <v>198</v>
       </c>
@@ -7173,11 +7165,11 @@
       <c r="E167" t="s">
         <v>398</v>
       </c>
-      <c r="G167" s="33" t="s">
+      <c r="G167" s="36" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" hidden="1">
       <c r="A168" s="1" t="s">
         <v>198</v>
       </c>
@@ -7193,9 +7185,9 @@
       <c r="E168" t="s">
         <v>207</v>
       </c>
-      <c r="G168" s="33"/>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="G168" s="36"/>
+    </row>
+    <row r="169" spans="1:7" hidden="1">
       <c r="A169" s="1" t="s">
         <v>198</v>
       </c>
@@ -7212,7 +7204,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" hidden="1">
       <c r="A170" s="1" t="s">
         <v>198</v>
       </c>
@@ -7229,7 +7221,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" hidden="1">
       <c r="A171" s="1" t="s">
         <v>198</v>
       </c>
@@ -7245,11 +7237,11 @@
       <c r="E171" t="s">
         <v>210</v>
       </c>
-      <c r="G171" s="33" t="s">
+      <c r="G171" s="36" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" hidden="1">
       <c r="A172" s="1" t="s">
         <v>198</v>
       </c>
@@ -7265,9 +7257,9 @@
       <c r="E172" t="s">
         <v>211</v>
       </c>
-      <c r="G172" s="33"/>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="G172" s="36"/>
+    </row>
+    <row r="173" spans="1:7" hidden="1">
       <c r="A173" s="1" t="s">
         <v>198</v>
       </c>
@@ -7287,7 +7279,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" hidden="1">
       <c r="A174" s="1" t="s">
         <v>198</v>
       </c>
@@ -7306,11 +7298,11 @@
       <c r="F174" t="s">
         <v>210</v>
       </c>
-      <c r="G174" s="33" t="s">
+      <c r="G174" s="36" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" hidden="1">
       <c r="A175" s="1" t="s">
         <v>198</v>
       </c>
@@ -7329,9 +7321,9 @@
       <c r="F175" t="s">
         <v>211</v>
       </c>
-      <c r="G175" s="33"/>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="G175" s="36"/>
+    </row>
+    <row r="176" spans="1:7" hidden="1">
       <c r="A176" s="1" t="s">
         <v>198</v>
       </c>
@@ -7351,7 +7343,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" hidden="1">
       <c r="A177" s="1" t="s">
         <v>198</v>
       </c>
@@ -7368,7 +7360,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" hidden="1">
       <c r="A178" s="1" t="s">
         <v>198</v>
       </c>
@@ -7384,11 +7376,11 @@
       <c r="E178" t="s">
         <v>224</v>
       </c>
-      <c r="F178" t="s">
+      <c r="G178" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" hidden="1">
       <c r="A179" s="1" t="s">
         <v>198</v>
       </c>
@@ -7405,7 +7397,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" hidden="1">
       <c r="A180" s="1" t="s">
         <v>198</v>
       </c>
@@ -7421,8 +7413,11 @@
       <c r="E180" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="G180" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" hidden="1">
       <c r="A181" s="1" t="s">
         <v>198</v>
       </c>
@@ -7438,11 +7433,8 @@
       <c r="E181" t="s">
         <v>224</v>
       </c>
-      <c r="F181" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+    </row>
+    <row r="182" spans="1:7" hidden="1">
       <c r="A182" s="1" t="s">
         <v>198</v>
       </c>
@@ -7459,7 +7451,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" hidden="1">
       <c r="A183" s="1" t="s">
         <v>198</v>
       </c>
@@ -7476,7 +7468,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" hidden="1">
       <c r="A184" s="1" t="s">
         <v>198</v>
       </c>
@@ -7493,7 +7485,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" hidden="1">
       <c r="A185" s="1" t="s">
         <v>198</v>
       </c>
@@ -7510,7 +7502,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" hidden="1">
       <c r="A186" s="1" t="s">
         <v>198</v>
       </c>
@@ -7530,7 +7522,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" hidden="1">
       <c r="A187" s="1" t="s">
         <v>198</v>
       </c>
@@ -7547,7 +7539,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" hidden="1">
       <c r="A188" s="1" t="s">
         <v>198</v>
       </c>
@@ -7564,7 +7556,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" hidden="1">
       <c r="A189" s="1" t="s">
         <v>198</v>
       </c>
@@ -7581,7 +7573,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" hidden="1">
       <c r="A190" s="1" t="s">
         <v>198</v>
       </c>
@@ -7598,7 +7590,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" hidden="1">
       <c r="A191" s="1" t="s">
         <v>198</v>
       </c>
@@ -7615,7 +7607,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" hidden="1">
       <c r="A192" s="1" t="s">
         <v>198</v>
       </c>
@@ -7632,7 +7624,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" hidden="1">
       <c r="A193" s="1" t="s">
         <v>198</v>
       </c>
@@ -7649,7 +7641,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" hidden="1">
       <c r="A194" s="1" t="s">
         <v>198</v>
       </c>
@@ -7666,7 +7658,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" hidden="1">
       <c r="A195" s="1" t="s">
         <v>198</v>
       </c>
@@ -7683,7 +7675,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" hidden="1">
       <c r="A196" s="1" t="s">
         <v>198</v>
       </c>
@@ -7700,7 +7692,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" hidden="1">
       <c r="A197" s="1" t="s">
         <v>198</v>
       </c>
@@ -7717,7 +7709,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" hidden="1">
       <c r="A198" s="1" t="s">
         <v>198</v>
       </c>
@@ -7734,7 +7726,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" hidden="1">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
@@ -7751,7 +7743,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" hidden="1">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
@@ -7768,7 +7760,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" hidden="1">
       <c r="A201" s="1" t="s">
         <v>198</v>
       </c>
@@ -7785,7 +7777,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" hidden="1">
       <c r="A202" s="1" t="s">
         <v>198</v>
       </c>
@@ -7802,7 +7794,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" hidden="1">
       <c r="A203" s="1" t="s">
         <v>198</v>
       </c>
@@ -7819,7 +7811,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" hidden="1">
       <c r="A204" s="1" t="s">
         <v>198</v>
       </c>
@@ -7836,7 +7828,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" hidden="1">
       <c r="A205" s="1" t="s">
         <v>198</v>
       </c>
@@ -7853,7 +7845,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" hidden="1">
       <c r="A206" s="1" t="s">
         <v>198</v>
       </c>
@@ -7870,7 +7862,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" hidden="1">
       <c r="A207" s="1" t="s">
         <v>198</v>
       </c>
@@ -7887,7 +7879,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" hidden="1">
       <c r="A208" s="1" t="s">
         <v>198</v>
       </c>
@@ -7904,7 +7896,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" hidden="1">
       <c r="A209" s="1" t="s">
         <v>198</v>
       </c>
@@ -7921,7 +7913,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" hidden="1">
       <c r="A210" s="1" t="s">
         <v>198</v>
       </c>
@@ -7938,7 +7930,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" hidden="1">
       <c r="A211" s="1" t="s">
         <v>198</v>
       </c>
@@ -7955,7 +7947,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" hidden="1">
       <c r="A212" s="1" t="s">
         <v>198</v>
       </c>
@@ -7972,7 +7964,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" hidden="1">
       <c r="A213" s="1" t="s">
         <v>198</v>
       </c>
@@ -7989,7 +7981,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" hidden="1">
       <c r="A214" s="1" t="s">
         <v>198</v>
       </c>
@@ -8006,7 +7998,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" hidden="1">
       <c r="A215" s="1" t="s">
         <v>198</v>
       </c>
@@ -8023,7 +8015,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" hidden="1">
       <c r="A216" s="1" t="s">
         <v>198</v>
       </c>
@@ -8040,7 +8032,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" hidden="1">
       <c r="A217" s="1" t="s">
         <v>198</v>
       </c>
@@ -8057,7 +8049,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" hidden="1">
       <c r="A218" s="1" t="s">
         <v>198</v>
       </c>
@@ -8074,7 +8066,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" hidden="1">
       <c r="A219" s="1" t="s">
         <v>198</v>
       </c>
@@ -8091,7 +8083,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" hidden="1">
       <c r="A220" s="1" t="s">
         <v>198</v>
       </c>
@@ -8108,7 +8100,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" hidden="1">
       <c r="A221" s="1" t="s">
         <v>198</v>
       </c>
@@ -8125,7 +8117,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" hidden="1">
       <c r="A222" s="1" t="s">
         <v>198</v>
       </c>
@@ -8142,7 +8134,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" hidden="1">
       <c r="A223" s="1" t="s">
         <v>198</v>
       </c>
@@ -8159,7 +8151,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" hidden="1">
       <c r="A224" s="1" t="s">
         <v>198</v>
       </c>
@@ -8176,7 +8168,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" hidden="1">
       <c r="A225" s="1" t="s">
         <v>198</v>
       </c>
@@ -8193,7 +8185,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" hidden="1">
       <c r="A226" s="1" t="s">
         <v>198</v>
       </c>
@@ -8210,7 +8202,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" hidden="1">
       <c r="A227" s="1" t="s">
         <v>198</v>
       </c>
@@ -8227,7 +8219,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" hidden="1">
       <c r="A228" s="1" t="s">
         <v>198</v>
       </c>
@@ -8244,7 +8236,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" hidden="1">
       <c r="A229" s="1" t="s">
         <v>198</v>
       </c>
@@ -8261,7 +8253,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" hidden="1">
       <c r="A230" s="1" t="s">
         <v>198</v>
       </c>
@@ -8278,7 +8270,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15.6" customHeight="1">
+    <row r="231" spans="1:6" ht="15.6" hidden="1" customHeight="1">
       <c r="A231" s="1" t="s">
         <v>198</v>
       </c>
@@ -8295,7 +8287,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" hidden="1">
       <c r="A232" s="1" t="s">
         <v>198</v>
       </c>
@@ -8312,7 +8304,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" hidden="1">
       <c r="A233" s="1" t="s">
         <v>198</v>
       </c>
@@ -8329,7 +8321,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" hidden="1">
       <c r="A234" s="1" t="s">
         <v>198</v>
       </c>
@@ -8346,7 +8338,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" hidden="1">
       <c r="A235" s="1" t="s">
         <v>198</v>
       </c>
@@ -8363,7 +8355,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" hidden="1">
       <c r="A236" s="1" t="s">
         <v>198</v>
       </c>
@@ -8380,7 +8372,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" hidden="1">
       <c r="A237" s="1" t="s">
         <v>198</v>
       </c>
@@ -8400,7 +8392,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" hidden="1">
       <c r="A238" s="1" t="s">
         <v>198</v>
       </c>
@@ -8417,7 +8409,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" hidden="1">
       <c r="A239" s="1" t="s">
         <v>198</v>
       </c>
@@ -8434,7 +8426,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" hidden="1">
       <c r="A240" s="1" t="s">
         <v>198</v>
       </c>
@@ -8454,7 +8446,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" hidden="1">
       <c r="A241" s="1" t="s">
         <v>198</v>
       </c>
@@ -8471,7 +8463,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" hidden="1">
       <c r="A242" s="1" t="s">
         <v>198</v>
       </c>
@@ -8488,7 +8480,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" hidden="1">
       <c r="A243" s="1" t="s">
         <v>198</v>
       </c>
@@ -8505,7 +8497,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" hidden="1">
       <c r="A244" s="1" t="s">
         <v>198</v>
       </c>
@@ -8525,7 +8517,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" hidden="1">
       <c r="A245" s="1" t="s">
         <v>198</v>
       </c>
@@ -8542,7 +8534,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" hidden="1">
       <c r="A246" s="1" t="s">
         <v>198</v>
       </c>
@@ -8559,7 +8551,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" hidden="1">
       <c r="A247" s="1" t="s">
         <v>198</v>
       </c>
@@ -8576,7 +8568,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" hidden="1">
       <c r="A248" s="1" t="s">
         <v>198</v>
       </c>
@@ -8596,7 +8588,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" hidden="1">
       <c r="A249" s="1" t="s">
         <v>198</v>
       </c>
@@ -8613,7 +8605,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" hidden="1">
       <c r="A250" s="1" t="s">
         <v>198</v>
       </c>
@@ -8630,7 +8622,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" hidden="1">
       <c r="A251" s="1" t="s">
         <v>198</v>
       </c>
@@ -8647,7 +8639,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" hidden="1">
       <c r="A252" s="1" t="s">
         <v>198</v>
       </c>
@@ -8667,7 +8659,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" hidden="1">
       <c r="A253" s="1" t="s">
         <v>198</v>
       </c>
@@ -8684,7 +8676,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" hidden="1">
       <c r="A254" s="1" t="s">
         <v>198</v>
       </c>
@@ -8701,7 +8693,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" hidden="1">
       <c r="A255" s="1" t="s">
         <v>198</v>
       </c>
@@ -8718,7 +8710,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" hidden="1">
       <c r="A256" s="1" t="s">
         <v>198</v>
       </c>
@@ -8738,7 +8730,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" hidden="1">
       <c r="A257" s="1" t="s">
         <v>198</v>
       </c>
@@ -8755,7 +8747,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" hidden="1">
       <c r="A258" s="1" t="s">
         <v>198</v>
       </c>
@@ -8772,7 +8764,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" hidden="1">
       <c r="A259" s="1" t="s">
         <v>198</v>
       </c>
@@ -8789,7 +8781,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" hidden="1">
       <c r="A260" s="1" t="s">
         <v>198</v>
       </c>
@@ -8809,7 +8801,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" hidden="1">
       <c r="A261" s="1" t="s">
         <v>198</v>
       </c>
@@ -8826,7 +8818,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" hidden="1">
       <c r="A262" s="1" t="s">
         <v>198</v>
       </c>
@@ -8846,7 +8838,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" hidden="1">
       <c r="A263" s="1" t="s">
         <v>198</v>
       </c>
@@ -8866,7 +8858,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" hidden="1">
       <c r="A264" s="1" t="s">
         <v>198</v>
       </c>
@@ -8883,7 +8875,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" hidden="1">
       <c r="A265" s="1" t="s">
         <v>198</v>
       </c>
@@ -8900,7 +8892,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" hidden="1">
       <c r="A266" s="1" t="s">
         <v>198</v>
       </c>
@@ -8920,7 +8912,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" hidden="1">
       <c r="A267" s="1" t="s">
         <v>198</v>
       </c>
@@ -8940,7 +8932,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" hidden="1">
       <c r="A268" s="1" t="s">
         <v>198</v>
       </c>
@@ -8957,7 +8949,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" hidden="1">
       <c r="A269" s="1" t="s">
         <v>198</v>
       </c>
@@ -8974,7 +8966,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" hidden="1">
       <c r="A270" s="1" t="s">
         <v>198</v>
       </c>
@@ -8994,7 +8986,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" hidden="1">
       <c r="A271" s="1" t="s">
         <v>198</v>
       </c>
@@ -9014,7 +9006,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" hidden="1">
       <c r="A272" s="1" t="s">
         <v>198</v>
       </c>
@@ -9031,7 +9023,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" hidden="1">
       <c r="A273" s="1" t="s">
         <v>198</v>
       </c>
@@ -9048,7 +9040,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" hidden="1">
       <c r="A274" s="1" t="s">
         <v>198</v>
       </c>
@@ -9068,7 +9060,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" hidden="1">
       <c r="A275" s="1" t="s">
         <v>198</v>
       </c>
@@ -9088,7 +9080,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" hidden="1">
       <c r="A276" s="1" t="s">
         <v>198</v>
       </c>
@@ -9105,7 +9097,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" hidden="1">
       <c r="A277" s="1" t="s">
         <v>198</v>
       </c>
@@ -9122,7 +9114,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" hidden="1">
       <c r="A278" s="1" t="s">
         <v>198</v>
       </c>
@@ -9142,7 +9134,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" hidden="1">
       <c r="A279" s="1" t="s">
         <v>198</v>
       </c>
@@ -9162,7 +9154,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" hidden="1">
       <c r="A280" s="1" t="s">
         <v>198</v>
       </c>
@@ -9179,7 +9171,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" hidden="1">
       <c r="A281" s="1" t="s">
         <v>198</v>
       </c>
@@ -9196,7 +9188,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" hidden="1">
       <c r="A282" s="1" t="s">
         <v>198</v>
       </c>
@@ -9216,7 +9208,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" hidden="1">
       <c r="A283" s="1" t="s">
         <v>198</v>
       </c>
@@ -9239,7 +9231,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" hidden="1">
       <c r="A284" s="1" t="s">
         <v>198</v>
       </c>
@@ -9256,7 +9248,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" hidden="1">
       <c r="A285" s="1" t="s">
         <v>198</v>
       </c>
@@ -9273,7 +9265,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" hidden="1">
       <c r="A286" s="1" t="s">
         <v>198</v>
       </c>
@@ -9293,7 +9285,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" hidden="1">
       <c r="A287" s="1" t="s">
         <v>198</v>
       </c>
@@ -9313,7 +9305,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" hidden="1">
       <c r="A288" s="1" t="s">
         <v>198</v>
       </c>
@@ -9330,7 +9322,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" hidden="1">
       <c r="A289" s="1" t="s">
         <v>198</v>
       </c>
@@ -9347,7 +9339,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" hidden="1">
       <c r="A290" s="1" t="s">
         <v>198</v>
       </c>
@@ -9367,7 +9359,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" hidden="1">
       <c r="A291" s="1" t="s">
         <v>198</v>
       </c>
@@ -9384,7 +9376,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" hidden="1">
       <c r="A292" s="1" t="s">
         <v>198</v>
       </c>
@@ -9404,7 +9396,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" hidden="1">
       <c r="A293" s="1" t="s">
         <v>198</v>
       </c>
@@ -9421,7 +9413,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" hidden="1">
       <c r="A294" s="1" t="s">
         <v>198</v>
       </c>
@@ -9438,7 +9430,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" hidden="1">
       <c r="A295" s="1" t="s">
         <v>198</v>
       </c>
@@ -9455,7 +9447,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" hidden="1">
       <c r="A296" s="1" t="s">
         <v>198</v>
       </c>
@@ -9478,7 +9470,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" hidden="1">
       <c r="A297" s="1" t="s">
         <v>198</v>
       </c>
@@ -9495,7 +9487,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" hidden="1">
       <c r="A298" s="1" t="s">
         <v>198</v>
       </c>
@@ -9515,7 +9507,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" hidden="1">
       <c r="A299" s="1" t="s">
         <v>198</v>
       </c>
@@ -9532,7 +9524,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" hidden="1">
       <c r="A300" s="1" t="s">
         <v>198</v>
       </c>
@@ -9549,7 +9541,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" hidden="1">
       <c r="A301" s="1" t="s">
         <v>198</v>
       </c>
@@ -9566,7 +9558,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" hidden="1">
       <c r="A302" s="1" t="s">
         <v>198</v>
       </c>
@@ -9586,7 +9578,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" hidden="1">
       <c r="A303" s="1" t="s">
         <v>198</v>
       </c>
@@ -9603,7 +9595,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" hidden="1">
       <c r="A304" s="1" t="s">
         <v>198</v>
       </c>
@@ -9623,7 +9615,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" hidden="1">
       <c r="A305" s="1" t="s">
         <v>198</v>
       </c>
@@ -9640,7 +9632,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" hidden="1">
       <c r="A306" s="1" t="s">
         <v>198</v>
       </c>
@@ -9660,7 +9652,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" hidden="1">
       <c r="A307" s="1" t="s">
         <v>198</v>
       </c>
@@ -9677,7 +9669,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" hidden="1">
       <c r="A308" s="1" t="s">
         <v>198</v>
       </c>
@@ -9694,7 +9686,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" hidden="1">
       <c r="A309" s="1" t="s">
         <v>198</v>
       </c>
@@ -9711,7 +9703,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" hidden="1">
       <c r="A310" s="1" t="s">
         <v>198</v>
       </c>
@@ -9728,7 +9720,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" hidden="1">
       <c r="A311" s="1" t="s">
         <v>198</v>
       </c>
@@ -9745,7 +9737,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" hidden="1">
       <c r="A312" s="1" t="s">
         <v>198</v>
       </c>
@@ -9762,7 +9754,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" hidden="1">
       <c r="A313" s="1" t="s">
         <v>198</v>
       </c>
@@ -9780,7 +9772,7 @@
       </c>
       <c r="F313" s="9"/>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" hidden="1">
       <c r="A314" s="1" t="s">
         <v>198</v>
       </c>
@@ -9798,7 +9790,7 @@
       </c>
       <c r="F314" s="9"/>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" hidden="1">
       <c r="A315" s="1" t="s">
         <v>198</v>
       </c>
@@ -9816,7 +9808,7 @@
       </c>
       <c r="F315" s="9"/>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" hidden="1">
       <c r="A316" s="1" t="s">
         <v>198</v>
       </c>
@@ -9834,7 +9826,7 @@
       </c>
       <c r="F316" s="9"/>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" hidden="1">
       <c r="A317" s="1" t="s">
         <v>198</v>
       </c>
@@ -9851,7 +9843,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" hidden="1">
       <c r="A318" s="1" t="s">
         <v>198</v>
       </c>
@@ -9868,7 +9860,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" hidden="1">
       <c r="A319" s="1" t="s">
         <v>198</v>
       </c>
@@ -9885,7 +9877,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" hidden="1">
       <c r="A320" s="1" t="s">
         <v>198</v>
       </c>
@@ -9902,7 +9894,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" hidden="1">
       <c r="A321" s="1" t="s">
         <v>198</v>
       </c>
@@ -9919,7 +9911,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" hidden="1">
       <c r="A322" s="1" t="s">
         <v>198</v>
       </c>
@@ -9936,7 +9928,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" hidden="1">
       <c r="A323" s="1" t="s">
         <v>198</v>
       </c>
@@ -9956,7 +9948,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="55.2">
+    <row r="324" spans="1:7" ht="55.2" hidden="1">
       <c r="A324" s="1" t="s">
         <v>198</v>
       </c>
@@ -9973,7 +9965,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" hidden="1">
       <c r="A325" s="1" t="s">
         <v>198</v>
       </c>
@@ -10098,8 +10090,12 @@
       <c r="A359" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H324" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}">
-    <filterColumn colId="0" showButton="0"/>
+  <autoFilter ref="A1:H325" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}">
+    <filterColumn colId="0" showButton="0">
+      <filters>
+        <filter val="013"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="5">
@@ -12914,19 +12910,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925F1C00-052D-4755-B130-67488CB4BC21}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="107.77734375" style="37" customWidth="1"/>
-    <col min="3" max="16384" width="13" style="37"/>
+    <col min="1" max="1" width="20.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.77734375" style="35" customWidth="1"/>
+    <col min="3" max="16384" width="13" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>542</v>
       </c>
       <c r="B1" s="15" t="s">
@@ -12934,114 +12930,114 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="46.8">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>534</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="156">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="34" t="s">
         <v>537</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="34" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="46.8">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>513</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="34" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="78">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>538</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>539</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="187.2">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:2" ht="156">
+      <c r="A8" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="34" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>516</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="34" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="34" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="34" t="s">
         <v>520</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="31.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="34" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="31.2">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="34" t="s">
         <v>524</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="62.4">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:2" ht="46.8">
+      <c r="A14" s="34" t="s">
         <v>526</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="46.8">
-      <c r="A15" s="36" t="s">
+    <row r="15" spans="1:2" ht="31.2">
+      <c r="A15" s="34" t="s">
         <v>528</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>529</v>
       </c>
     </row>
@@ -13445,17 +13441,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="36" t="s">
         <v>35</v>
       </c>
     </row>
@@ -13466,9 +13462,9 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
       <c r="F2" t="s">
         <v>319</v>
       </c>
@@ -14892,20 +14888,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="36" t="s">
         <v>179</v>
       </c>
     </row>
@@ -14916,10 +14912,10 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
       <c r="I2" t="s">
         <v>134</v>
       </c>
@@ -16048,7 +16044,7 @@
       <c r="D74" t="s">
         <v>130</v>
       </c>
-      <c r="F74" s="33" t="s">
+      <c r="F74" s="36" t="s">
         <v>209</v>
       </c>
     </row>
@@ -16065,7 +16061,7 @@
       <c r="D75" t="s">
         <v>129</v>
       </c>
-      <c r="F75" s="33"/>
+      <c r="F75" s="36"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
@@ -16080,7 +16076,7 @@
       <c r="D76" t="s">
         <v>201</v>
       </c>
-      <c r="F76" s="33"/>
+      <c r="F76" s="36"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
@@ -16095,7 +16091,7 @@
       <c r="D77" t="s">
         <v>202</v>
       </c>
-      <c r="F77" s="33"/>
+      <c r="F77" s="36"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
@@ -16110,7 +16106,7 @@
       <c r="D78" t="s">
         <v>154</v>
       </c>
-      <c r="F78" s="33"/>
+      <c r="F78" s="36"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
@@ -16156,7 +16152,7 @@
       <c r="D81" t="s">
         <v>130</v>
       </c>
-      <c r="F81" s="33" t="s">
+      <c r="F81" s="36" t="s">
         <v>206</v>
       </c>
     </row>
@@ -16173,7 +16169,7 @@
       <c r="D82" t="s">
         <v>129</v>
       </c>
-      <c r="F82" s="33"/>
+      <c r="F82" s="36"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
@@ -16191,7 +16187,7 @@
       <c r="E83" t="s">
         <v>207</v>
       </c>
-      <c r="F83" s="33"/>
+      <c r="F83" s="36"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
@@ -16254,7 +16250,7 @@
       <c r="E87" t="s">
         <v>210</v>
       </c>
-      <c r="F87" s="33" t="s">
+      <c r="F87" s="36" t="s">
         <v>221</v>
       </c>
     </row>
@@ -16274,7 +16270,7 @@
       <c r="E88" t="s">
         <v>211</v>
       </c>
-      <c r="F88" s="33"/>
+      <c r="F88" s="36"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
@@ -16309,7 +16305,7 @@
       <c r="E90" t="s">
         <v>210</v>
       </c>
-      <c r="F90" s="33" t="s">
+      <c r="F90" s="36" t="s">
         <v>221</v>
       </c>
     </row>
@@ -16329,7 +16325,7 @@
       <c r="E91" t="s">
         <v>211</v>
       </c>
-      <c r="F91" s="33"/>
+      <c r="F91" s="36"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
